--- a/pruebas/recibidasAlcasal.xlsx
+++ b/pruebas/recibidasAlcasal.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
   <si>
     <t>Proveedor</t>
   </si>
@@ -391,87 +391,6 @@
   </si>
   <si>
     <t>Factura Nº 2024/01/8477 de Cárnicas Chamberí</t>
-  </si>
-  <si>
-    <t>fechaFactura</t>
-  </si>
-  <si>
-    <t>referenciaFactura</t>
-  </si>
-  <si>
-    <t>nombreProveedor</t>
-  </si>
-  <si>
-    <t>nifProveedor</t>
-  </si>
-  <si>
-    <t>totalFactura</t>
-  </si>
-  <si>
-    <t>base2</t>
-  </si>
-  <si>
-    <t>iva2</t>
-  </si>
-  <si>
-    <t>base4</t>
-  </si>
-  <si>
-    <t>iva4</t>
-  </si>
-  <si>
-    <t>base5</t>
-  </si>
-  <si>
-    <t>iva5</t>
-  </si>
-  <si>
-    <t>baseTotal</t>
-  </si>
-  <si>
-    <t>base1</t>
-  </si>
-  <si>
-    <t>iva1</t>
-  </si>
-  <si>
-    <t>base3</t>
-  </si>
-  <si>
-    <t>iva3</t>
-  </si>
-  <si>
-    <t>base6</t>
-  </si>
-  <si>
-    <t>iva6</t>
-  </si>
-  <si>
-    <t>base7</t>
-  </si>
-  <si>
-    <t>iva7</t>
-  </si>
-  <si>
-    <t>baseIrpf</t>
-  </si>
-  <si>
-    <t>cuotaIrpf</t>
-  </si>
-  <si>
-    <t>porcentajeIrpf</t>
-  </si>
-  <si>
-    <t>Si hay mas de un tipo de IVA poner un contador de lineas (cainliva.3)</t>
-  </si>
-  <si>
-    <t>Poner como nº factura un contador por linea (cainliva.1 y cainliva.2)</t>
-  </si>
-  <si>
-    <t>Intentar sacar de la cabecera el porcentaje de IVA con regex</t>
-  </si>
-  <si>
-    <t>Nota: en las bases del 10% y del 21% no estan puestas las cuotas de IVA</t>
   </si>
 </sst>
 </file>
@@ -938,14 +857,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1267,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2401,93 +2316,6 @@
         <v>5666.75</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" t="s">
-        <v>129</v>
-      </c>
-      <c r="L23" t="s">
-        <v>130</v>
-      </c>
-      <c r="M23" t="s">
-        <v>138</v>
-      </c>
-      <c r="N23" t="s">
-        <v>139</v>
-      </c>
-      <c r="O23" t="s">
-        <v>131</v>
-      </c>
-      <c r="P23" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>133</v>
-      </c>
-      <c r="R23" t="s">
-        <v>134</v>
-      </c>
-      <c r="S23" t="s">
-        <v>140</v>
-      </c>
-      <c r="T23" t="s">
-        <v>141</v>
-      </c>
-      <c r="U23" t="s">
-        <v>142</v>
-      </c>
-      <c r="V23" t="s">
-        <v>143</v>
-      </c>
-      <c r="W23" t="s">
-        <v>135</v>
-      </c>
-      <c r="X23" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
